--- a/Assets/Excel/TaskData_1.xlsx
+++ b/Assets/Excel/TaskData_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1125,7 +1125,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1162,10 +1162,10 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6">
